--- a/CoolingBoxWireOrganizer_bom.xlsx
+++ b/CoolingBoxWireOrganizer_bom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kitanoitaru/Desktop/M1/CoolingBoxWireOrganizer/CoolingBoxWireOrganizer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kitanoitaru/Desktop/M1/CoolingBoxWireOrganizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64573B83-580E-E448-9277-83164A84C2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACC41F3-E19F-114F-B45B-47CD944644AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36420" yWindow="780" windowWidth="30780" windowHeight="21760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36400" yWindow="780" windowWidth="30780" windowHeight="21760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoolingBoxWireOrganizer_bom" sheetId="1" r:id="rId1"/>
@@ -544,9 +544,6 @@
     <t>501331-0207</t>
   </si>
   <si>
-    <t>PH2-06-UA</t>
-  </si>
-  <si>
     <t>501330-0400</t>
   </si>
   <si>
@@ -747,6 +744,10 @@
     <rPh sb="0" eb="4">
       <t>キュウシュウ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>PH2-06-UA</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1752,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="89" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1788,13 +1789,13 @@
         <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2387,7 +2388,7 @@
         <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="H21" s="3">
         <v>18</v>
@@ -2423,7 +2424,7 @@
         <v>105</v>
       </c>
       <c r="G24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H24">
         <v>38</v>
@@ -2447,7 +2448,7 @@
         <v>106</v>
       </c>
       <c r="G25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H25">
         <v>55</v>
@@ -2471,7 +2472,7 @@
         <v>107</v>
       </c>
       <c r="G26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H26">
         <v>35</v>
@@ -2495,7 +2496,7 @@
         <v>108</v>
       </c>
       <c r="G27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H27">
         <v>86</v>
@@ -2519,7 +2520,7 @@
         <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H28">
         <v>53</v>
@@ -2531,19 +2532,19 @@
     </row>
     <row r="29" spans="1:9">
       <c r="C29" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29">
         <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
         <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H29">
         <v>28</v>
@@ -2561,13 +2562,13 @@
         <v>16</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F30" t="s">
         <v>111</v>
       </c>
       <c r="G30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H30">
         <v>17</v>
@@ -2585,19 +2586,19 @@
     </row>
     <row r="32" spans="1:9">
       <c r="C32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32">
         <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H32">
         <v>1323</v>
@@ -2621,7 +2622,7 @@
         <v>101</v>
       </c>
       <c r="G33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H33">
         <v>2353</v>
@@ -2636,13 +2637,13 @@
         <v>3</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" t="s">
         <v>169</v>
-      </c>
-      <c r="G34" t="s">
-        <v>170</v>
       </c>
       <c r="H34">
         <v>479</v>
@@ -2654,19 +2655,19 @@
     </row>
     <row r="35" spans="3:10">
       <c r="C35" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H35">
         <v>2581</v>
@@ -2678,19 +2679,19 @@
     </row>
     <row r="36" spans="3:10">
       <c r="C36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H36">
         <v>1838</v>
@@ -2723,13 +2724,13 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" t="s">
         <v>165</v>
-      </c>
-      <c r="G40" t="s">
-        <v>166</v>
       </c>
       <c r="H40">
         <v>7445</v>
@@ -2753,7 +2754,7 @@
         <v>113</v>
       </c>
       <c r="G41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H41">
         <v>3841</v>
@@ -2783,16 +2784,16 @@
     </row>
     <row r="45" spans="3:10">
       <c r="C45" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G45" s="5">
         <v>3273198</v>
@@ -2805,21 +2806,21 @@
         <v>1968</v>
       </c>
       <c r="J45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="3:10">
       <c r="C46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G46" s="5">
         <v>3210499</v>
@@ -2832,13 +2833,13 @@
         <v>2438</v>
       </c>
       <c r="J46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="3:10">
       <c r="G47" s="5"/>
       <c r="J47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="3:10">
@@ -2847,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="4:10">
@@ -2855,22 +2856,22 @@
         <v>2</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F49" t="s">
+        <v>178</v>
+      </c>
+      <c r="G49" t="s">
         <v>179</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>180</v>
-      </c>
-      <c r="H49" t="s">
-        <v>181</v>
       </c>
       <c r="I49">
         <v>1994</v>
       </c>
       <c r="J49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="4:10">
@@ -2879,10 +2880,10 @@
       </c>
       <c r="E50" s="6"/>
       <c r="F50" t="s">
+        <v>181</v>
+      </c>
+      <c r="G50" t="s">
         <v>182</v>
-      </c>
-      <c r="G50" t="s">
-        <v>183</v>
       </c>
       <c r="H50">
         <v>110</v>
@@ -2892,7 +2893,7 @@
         <v>440</v>
       </c>
       <c r="J50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="4:10">
@@ -2901,10 +2902,10 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H51">
         <v>30</v>
@@ -2914,7 +2915,7 @@
         <v>120</v>
       </c>
       <c r="J51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="4:10">
@@ -2923,10 +2924,10 @@
       </c>
       <c r="E52" s="6"/>
       <c r="F52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H52">
         <v>32</v>
@@ -2936,7 +2937,7 @@
         <v>384</v>
       </c>
       <c r="J52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="4:10">
@@ -2945,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="4:10">
@@ -2953,10 +2954,10 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H54">
         <v>3290</v>
@@ -2966,7 +2967,7 @@
         <v>3290</v>
       </c>
       <c r="J54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="4:10">
@@ -2974,10 +2975,10 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H55">
         <v>1898</v>
@@ -2987,7 +2988,7 @@
         <v>3796</v>
       </c>
       <c r="J55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="4:10">
@@ -2995,10 +2996,10 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H56">
         <v>399</v>
@@ -3008,12 +3009,12 @@
         <v>798</v>
       </c>
       <c r="J56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="4:10">
       <c r="H57" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I57" s="4">
         <f>SUM(I2:I56)</f>

--- a/CoolingBoxWireOrganizer_bom.xlsx
+++ b/CoolingBoxWireOrganizer_bom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kitanoitaru/Desktop/M1/CoolingBoxWireOrganizer/CoolingBoxWireOrganizer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kitanoitaru/Desktop/M1/CoolingBoxWireOrganizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64573B83-580E-E448-9277-83164A84C2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA1848A-E212-5641-9566-97C4E2EF4870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36420" yWindow="780" windowWidth="30780" windowHeight="21760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="201">
   <si>
     <t>Reference</t>
   </si>
@@ -747,6 +747,21 @@
     <rPh sb="0" eb="4">
       <t>キュウシュウ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>jumper pin</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>QPC02SXGN-RC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/ja/products/detail/sullins-connector-solutions/QPC02SXGN-RC/2618262?utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Pmax%20Shopping_Product_Low%20Volume&amp;utm_term=&amp;productid=2618262&amp;utm_content=&amp;utm_id=go_cmp-20195885710_adg-_ad-__dev-c_ext-_prd-2618262_sig-Cj0KCQjw4Oe4BhCcARIsADQ0csk3KptAQwxkMAcxWVRj6vIKIykWTCykGRXLARAGUXBFWDuMXgmAPkkaAsstEALw_wcB&amp;gad_source=1&amp;gclid=Cj0KCQjw4Oe4BhCcARIsADQ0csk3KptAQwxkMAcxWVRj6vIKIykWTCykGRXLARAGUXBFWDuMXgmAPkkaAsstEALw_wcB</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://s3.amazonaws.com/catalogspreads-pdf/PAGE128-129%20.100%20JUMPER.pdf</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1752,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="89" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2701,9 +2716,27 @@
       </c>
     </row>
     <row r="37" spans="3:10">
+      <c r="C37" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37">
+        <v>16</v>
+      </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="3:10">
@@ -3017,7 +3050,7 @@
       </c>
       <c r="I57" s="4">
         <f>SUM(I2:I56)</f>
-        <v>65024</v>
+        <v>65056</v>
       </c>
     </row>
   </sheetData>
@@ -3078,6 +3111,8 @@
     <hyperlink ref="E36" r:id="rId50" xr:uid="{0EFE1CFD-3899-4545-95EB-5F532D993A0E}"/>
     <hyperlink ref="C29" r:id="rId51" xr:uid="{DBB7A5C1-EFCA-7C4E-93EA-841FA1D2CCEA}"/>
     <hyperlink ref="E49" r:id="rId52" xr:uid="{4F5184F6-E1B2-804C-92DE-E2E074A050D8}"/>
+    <hyperlink ref="E37" r:id="rId53" display="https://www.digikey.jp/ja/products/detail/sullins-connector-solutions/QPC02SXGN-RC/2618262?utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Pmax%20Shopping_Product_Low%20Volume&amp;utm_term=&amp;productid=2618262&amp;utm_content=&amp;utm_id=go_cmp-20195885710_adg-_ad-__dev-c_ext-_prd-2618262_sig-Cj0KCQjw4Oe4BhCcARIsADQ0csk3KptAQwxkMAcxWVRj6vIKIykWTCykGRXLARAGUXBFWDuMXgmAPkkaAsstEALw_wcB&amp;gad_source=1&amp;gclid=Cj0KCQjw4Oe4BhCcARIsADQ0csk3KptAQwxkMAcxWVRj6vIKIykWTCykGRXLARAGUXBFWDuMXgmAPkkaAsstEALw_wcB" xr:uid="{625B7CB5-85B1-7C47-960C-134E096DFF79}"/>
+    <hyperlink ref="C37" r:id="rId54" xr:uid="{35F3C887-53A6-974E-A0B4-D8A3F1875299}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
